--- a/docs/Modelo Entidad-Relacion.xlsx
+++ b/docs/Modelo Entidad-Relacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyecto-banco\StaffTracker\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2A58C21-AEE6-4D4F-B0A3-245BF7FDA2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D22AD0A-3E64-4142-B560-34CFD3F5127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DAC53246-8A4E-4E55-B1C9-8F3D5BC78CB5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="65">
   <si>
     <t>Proyectos</t>
   </si>
@@ -98,9 +98,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -122,97 +119,118 @@
     <t>Fecha Fin</t>
   </si>
   <si>
+    <t>Externos</t>
+  </si>
+  <si>
+    <t>Reglas de Oro</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>In Progress, Ready To Verify, Test,</t>
+  </si>
+  <si>
+    <t>Número de recursos internos</t>
+  </si>
+  <si>
+    <t>Número de recursos externos</t>
+  </si>
+  <si>
+    <t>Staffing</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Ocupacion</t>
+  </si>
+  <si>
+    <t>Tecnologia</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>PK, FK --&gt; Staffing</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Ocupacion Total</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>FK --&gt; Personas</t>
+  </si>
+  <si>
+    <t>Habilidades</t>
+  </si>
+  <si>
+    <t>FK --&gt; Habilidades</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>UK, FK --&gt; P-T-C</t>
+  </si>
+  <si>
+    <t>PK, FK --&gt; P-T-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>Cumple</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Golden Rules</t>
+  </si>
+  <si>
+    <t>PK, FK --&gt; Golden Rules</t>
+  </si>
+  <si>
+    <t>UK, FK --&gt; Golden Rules</t>
+  </si>
+  <si>
+    <t>Customer, Enabler</t>
+  </si>
+  <si>
+    <t>Disparador</t>
+  </si>
+  <si>
     <t>Internos</t>
   </si>
   <si>
-    <t>Externos</t>
-  </si>
-  <si>
-    <t>Reglas de Oro</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Arreglo de números</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer, </t>
-  </si>
-  <si>
-    <t>In Progress, Ready To Verify, Test,</t>
-  </si>
-  <si>
-    <t>Número de recursos internos</t>
-  </si>
-  <si>
-    <t>Número de recursos externos</t>
-  </si>
-  <si>
-    <t>Listado con los números correspondientes a cada regla de oro</t>
-  </si>
-  <si>
-    <t>Staffing</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Ocupacion</t>
-  </si>
-  <si>
-    <t>Tecnologia</t>
-  </si>
-  <si>
-    <t>Personas</t>
-  </si>
-  <si>
-    <t>PK, FK --&gt; Staffing</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Rol</t>
-  </si>
-  <si>
-    <t>Tecnologias</t>
-  </si>
-  <si>
-    <t>Ocupacion Total</t>
-  </si>
-  <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>Servicio</t>
-  </si>
-  <si>
-    <t>Superior</t>
-  </si>
-  <si>
-    <t>FK --&gt; Personas</t>
-  </si>
-  <si>
-    <t>Habilidades</t>
-  </si>
-  <si>
-    <t>FK --&gt; Habilidades</t>
-  </si>
-  <si>
-    <t>P-T-C</t>
-  </si>
-  <si>
-    <t>Porcentaje</t>
-  </si>
-  <si>
-    <t>PK --&gt; P-T-C</t>
-  </si>
-  <si>
-    <t>UK, FK --&gt; P-T-C</t>
+    <t>Porcentajes asociados</t>
   </si>
 </sst>
 </file>
@@ -236,12 +254,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -403,10 +427,16 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,20 +446,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2187FC1-7E21-4C4A-83EC-CA9788BF743B}">
-  <dimension ref="B4:AD16"/>
+  <dimension ref="B4:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,509 +792,572 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="G4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="L4" s="3" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="L4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="Q4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="13"/>
+      <c r="V4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="13"/>
+      <c r="AA4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="13"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="9"/>
+      <c r="AA7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="G8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="L8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="AA8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="9"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="L9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="Q9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="G10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="L10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="Q11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="Q12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="5"/>
-      <c r="V4" s="3" t="s">
+      <c r="R12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="G13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="L13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
+      <c r="Q13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="G14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="L14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="G15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="L15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="G16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="L16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="19" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="5"/>
-      <c r="AA4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="5"/>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD5" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9" t="s">
+      <c r="M22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="9" t="s">
+    </row>
+    <row r="23" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="14"/>
-      <c r="AA7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="11"/>
-      <c r="G8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="11"/>
-      <c r="L8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="11"/>
-      <c r="AA8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="14"/>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="11"/>
-      <c r="G9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="11"/>
-      <c r="L9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="11"/>
-      <c r="Q9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="G10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="L10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="G11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="Q11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="G12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="11"/>
-      <c r="Q12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="11"/>
-      <c r="G13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="11"/>
-      <c r="Q13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="G14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="Q14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="G15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="Q15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="G16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="14"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="25" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L19:O19"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="AA4:AD4"/>
